--- a/Excel/Práctica/16. Funciones financieras, Manejo de fechas, Buscar objetivo, Manejo de escenarios, Funcion de pago, Valor futuro, etc/Funcion de Pago, calculo del valor en cuotas.xlsx
+++ b/Excel/Práctica/16. Funciones financieras, Manejo de fechas, Buscar objetivo, Manejo de escenarios, Funcion de pago, Valor futuro, etc/Funcion de Pago, calculo del valor en cuotas.xlsx
@@ -59,6 +59,143 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Entonces, tenemos que la tasa de interés es Anual (5%) y el nper también (5 años), en esos casos, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">debemos pasar la tasa de interés anual en una mensual y el nper anual calcularlo en terminos de meses; es decir, hacer conversiones. Cuántos meses hay en un año? 12. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dicho lo anterior, habría que dividir la tasa de interés /12 para saber cuanto corresponde un 5% anual repartidos en 12 meses &amp;, por otra parte, saber cuántos meses hay en 5 años al multiplicar los 12 meses de un año por 5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tenemos que:</t>
+    </r>
+  </si>
+  <si>
+    <t>Conversiones</t>
+  </si>
+  <si>
+    <t>ti mensual</t>
+  </si>
+  <si>
+    <t>nper mensual</t>
+  </si>
+  <si>
+    <t>Aplicación de función pago</t>
+  </si>
+  <si>
+    <t>Pago mensual</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El valor inicial </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(va)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> corresponde al monto del prestamo hecho; que, en efecto, es la deuda asumida a dia de hoy y de la cual te interesa saber el valor de las cuotas que debes pagar para saldar el prestamo en un futuro, exactamente en 5 años. Por lo anterior, el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">monto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>va.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Y no nos interesa saber el valor final, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, debido a que no es la variable que nos interesa calcular, el pago final del prestamo; no, sino, el valor de las cuotas para pagar el prestamo asumido.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">El recurso Función Pago se encuentra en la pestaña </t>
     </r>
     <r>
@@ -112,7 +249,20 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Pago. </t>
+      <t>Pago.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pago</t>
     </r>
     <r>
       <rPr>
@@ -122,10 +272,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tal que así:</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> es una función financiera de Excel que nos permite calcular el pago de un préstamo basado en pagos y tasa de interés constantes; es decir, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>saber cómo calcular el valor por cada cuota a pagar para un prestamo dado;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> esto según una tasa de interés, un número de periodos (nper) y numéro de cuotas totales a pagar pactadas.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El marco temporal del valor de cada cuota a pagar debe ser congruente con la temporalidad de los demás parámetros; es decir, tasa de interés, </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -135,7 +313,28 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Pago</t>
+      <t xml:space="preserve">nper </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&amp; número de cuotas totales para dicho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nper. </t>
     </r>
     <r>
       <rPr>
@@ -145,17 +344,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> es una función financiera de Excel que nos permite calcular el pago de un préstamo basado en pagos y tasa de interés constantes; es decir, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>saber cómo calcular el valor por cada cuota a pagar para un prestamo dado;</t>
+      <t xml:space="preserve">En contexto, si se fija, la temporalidad del valor por cada cuota que se debe pagar (lo que nos interesa calcular) es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mensual </t>
     </r>
     <r>
       <rPr>
@@ -165,49 +365,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> esto según una tasa de interés, un número de periodos (nper) y numéro de cuotas totales a pagar pactadas.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El marco temporal del valor de cada cuota a pagar debe ser congruente con la temporalidad de las demás variables; es decir, tasa de interés, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nper </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&amp; número de cuotas totales para dicho </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nper. </t>
+      <t>(pago</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mensual</t>
     </r>
     <r>
       <rPr>
@@ -217,18 +385,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">En contexto, si se fija, la temporalidad del valor por cada cuota que se debe pagar (lo que nos interesa calcular) es </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">mensual </t>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
     </r>
     <r>
       <rPr>
@@ -238,184 +405,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(pago</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mensual</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">quiere decir entonces que, la temporalidad de las demás variables también debe ser mensual para obtener un calculo preciso del valor de las cuotas a pagar. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Entonces, tenemos que la tasa de interés es Anual (5%) y el nper también (5 años), en esos casos, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">debemos pasar la tasa de interés anual en una mensual y el nper anual calcularlo en terminos de meses; es decir, hacer conversiones. Cuántos meses hay en un año? 12. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dicho lo anterior, habría que dividir la tasa de interés /12 para saber cuanto corresponde un 5% anual repartidos en 12 meses &amp;, por otra parte, saber cuántos meses hay en 5 años al multiplicar los 12 meses de un año por 5. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tenemos que:</t>
-    </r>
-  </si>
-  <si>
-    <t>Conversiones</t>
-  </si>
-  <si>
-    <t>ti mensual</t>
-  </si>
-  <si>
-    <t>nper mensual</t>
-  </si>
-  <si>
-    <t>Aplicación de función pago</t>
-  </si>
-  <si>
-    <t>Pago mensual</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El valor inicial </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(va)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> corresponde al monto del prestamo hecho; que, en efecto, es la deuda asumida a dia de hoy y de la cual te interesa saber el valor de las cuotas que debes pagar para saldar el prestamo en un futuro, exactamente en 5 años. Por lo anterior, el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">monto </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">es </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>va.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Y no nos interesa saber el valor final, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, debido a que no es la variable que nos interesa calcular, el pago final del prestamo; no, sino, el valor de las cuotas para pagar el prestamo asumido.</t>
+      <t xml:space="preserve">quiere decir entonces que, la temporalidad de los demás parámetros también debe ser mensual para obtener un calculo preciso del valor de las cuotas a pagar. </t>
     </r>
   </si>
 </sst>
@@ -913,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E43" sqref="D43:E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -935,7 +925,7 @@
     </row>
     <row r="2" spans="2:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -945,7 +935,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="5"/>
       <c r="M2" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
@@ -1100,7 +1090,7 @@
     </row>
     <row r="13" spans="2:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1162,12 +1152,12 @@
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8">
         <f>C4/12</f>
@@ -1176,7 +1166,7 @@
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <f>C5*12</f>
@@ -1185,7 +1175,7 @@
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.25">
@@ -1193,7 +1183,7 @@
     </row>
     <row r="34" spans="5:11" ht="21" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F34" s="10">
         <f>PMT(F21,F22,C7)</f>
@@ -1202,7 +1192,7 @@
     </row>
     <row r="36" spans="5:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
